--- a/Jabava/static/xls/template.xlsx
+++ b/Jabava/static/xls/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="增员" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,14 @@
     <sheet name="参保类型（用户请勿修改）" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">增员!$O$1:$O$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">增员!$O$1:$O$144</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -23,23 +28,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
+    <author>zbwang</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>必填项</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +83,7 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t>必填项，请按“yyyy/MM/dd”格式填写</t>
+          <t>必填项，请按“yyyy-MM-dd”格式填写</t>
         </r>
       </text>
     </comment>
@@ -151,45 +143,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="1">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="2"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>必填项</t>
+          <t>数字格式，可以有小数点</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="2"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>必填项</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>必填项</t>
+          <t>数字格式，可以有小数点</t>
         </r>
       </text>
     </comment>
@@ -215,23 +193,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
+    <author>zbwang</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>必填项</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -343,45 +308,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="1">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="2"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>必填项</t>
+          <t>数字格式，可以有小数点</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="2"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>必填项</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>必填项</t>
+          <t>数字格式，可以有小数点</t>
         </r>
       </text>
     </comment>
@@ -410,20 +361,6 @@
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>必填项</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +426,7 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t>必填项，请按“yyyy/MM/dd”格式填写</t>
+          <t>必填项，请按“yyyy-MM-dd”格式填写</t>
         </r>
       </text>
     </comment>
@@ -512,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="162">
   <si>
     <t>员工姓名</t>
   </si>
@@ -532,7 +469,7 @@
     <t>离职日期</t>
   </si>
   <si>
-    <t>服务月</t>
+    <t>服务起始月</t>
   </si>
   <si>
     <t>账单月</t>
@@ -559,9 +496,15 @@
     <t>参保类型（社保组）</t>
   </si>
   <si>
+    <t>变更起始月</t>
+  </si>
+  <si>
     <t>社保服务月</t>
   </si>
   <si>
+    <t>服务结束月</t>
+  </si>
+  <si>
     <t>天津</t>
   </si>
   <si>
@@ -991,11 +934,7 @@
     <t>丹东</t>
   </si>
   <si>
-    <t>参保类型（社保组）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>离职日期</t>
+    <t>离职原因</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1003,10 +942,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1034,6 +970,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1093,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,13 +1046,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,6 +1068,669 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6427080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1136,8 +1739,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1179,8 +1782,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1222,8 +1825,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1265,8 +1868,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1308,8 +1911,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1351,8 +1954,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1394,8 +1997,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1437,8 +2040,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1480,8 +2083,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1523,8 +2126,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1566,8 +2169,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1609,8 +2212,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1652,8 +2255,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1692,6 +2295,669 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288330</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="5979240" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1700,8 +2966,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1743,8 +3009,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1786,8 +3052,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1829,8 +3095,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1872,8 +3138,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1915,8 +3181,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1958,8 +3224,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2001,8 +3267,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2044,8 +3310,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2087,8 +3353,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2130,8 +3396,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2173,8 +3439,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2216,8 +3482,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2256,6 +3522,363 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1203090</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6751080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1203090</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6751080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1203090</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6751080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1203090</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6751080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1203090</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6751080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1203090</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6751080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1203090</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="6751080" cy="9523080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2264,8 +3887,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2307,8 +3930,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2350,8 +3973,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2393,8 +4016,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2436,8 +4059,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2479,8 +4102,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2522,8 +4145,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -2847,30 +4470,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="11.5"/>
-    <col min="4" max="4" width="20.125"/>
-    <col min="5" max="9" width="11.5"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="13" width="11.5"/>
-    <col min="14" max="14" width="21.375"/>
-    <col min="15" max="15" width="20.125"/>
-    <col min="16" max="1025" width="11.5"/>
+    <col min="1" max="1" width="10" style="4"/>
+    <col min="2" max="2" width="11.375" style="4"/>
+    <col min="3" max="3" width="10.625" style="4"/>
+    <col min="4" max="4" width="19.5" style="4"/>
+    <col min="5" max="5" width="10.625" style="4"/>
+    <col min="6" max="6" width="0" style="4" hidden="1"/>
+    <col min="7" max="8" width="10.625" style="4"/>
+    <col min="9" max="9" width="0" style="4" hidden="1"/>
+    <col min="10" max="10" width="10.375" style="4"/>
+    <col min="11" max="11" width="10.5" style="4"/>
+    <col min="12" max="13" width="10.625" style="4"/>
+    <col min="14" max="14" width="21.375" style="4"/>
+    <col min="15" max="15" width="19.5" style="4"/>
+    <col min="16" max="16" width="19.5" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="1025" width="10.625" style="4"/>
+    <col min="1026" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2887,132 +4514,169 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>"身份证"</formula1>
+      <formula1>"身份证,军人证,港澳身份证,台胞证,护照,其它"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="4"/>
+    <col min="2" max="2" width="12.625" style="4"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="19.5" style="4"/>
+    <col min="5" max="6" width="0" style="4" hidden="1"/>
+    <col min="7" max="8" width="10.625" style="4"/>
+    <col min="9" max="9" width="0" style="4" hidden="1"/>
+    <col min="10" max="13" width="10.625" style="4"/>
+    <col min="14" max="15" width="19.5" style="4"/>
+    <col min="16" max="16" width="21.125" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="1025" width="10.625" style="4"/>
+    <col min="1026" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"身份证,军人证,港澳身份证,台胞证,护照,其它"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'参保类型（用户请勿修改）'!$A$1:$A$143</xm:f>
-          </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="20.125"/>
-    <col min="5" max="13" width="11.375"/>
-    <col min="14" max="15" width="20.125"/>
-    <col min="16" max="1025" width="11.375"/>
+    <col min="1" max="2" width="10.625" style="4"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="19.5" style="4"/>
+    <col min="5" max="5" width="0" style="4" hidden="1"/>
+    <col min="6" max="8" width="10.625" style="4"/>
+    <col min="9" max="9" width="0" style="4" hidden="1"/>
+    <col min="10" max="13" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="31.875" style="4" customWidth="1"/>
+    <col min="17" max="1025" width="10.625" style="4"/>
+    <col min="1026" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3031,244 +4695,48 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="P1" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>"身份证"</formula1>
+      <formula1>"身份证,军人证,港澳身份证,台胞证,护照,其它"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'参保类型（用户请勿修改）'!$A$1:$A$143</xm:f>
-          </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="11.375"/>
-    <col min="4" max="4" width="20.125"/>
-    <col min="5" max="13" width="11.375"/>
-    <col min="14" max="15" width="20.125"/>
-    <col min="16" max="1025" width="11.375"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>"身份证"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'参保类型（用户请勿修改）'!$A$1:$A$143</xm:f>
-          </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3276,732 +4744,732 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A143"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="25.625"/>
+    <col min="2" max="1025" width="7.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>